--- a/data/CBS/NFIB/Current Inventory.xlsx
+++ b/data/CBS/NFIB/Current Inventory.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE13944D-CA26-4239-BB62-CF1FE2FD2C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="450">
   <si>
     <t>Month/Year</t>
   </si>
@@ -36,6 +37,9 @@
     <t>1986/2/1</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>1986/3/1</t>
   </si>
   <si>
@@ -66,9 +70,6 @@
     <t>1986/9/1</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>1986/10/1</t>
   </si>
   <si>
@@ -1366,12 +1367,15 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1520,6 +1524,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1555,6 +1576,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1730,8 +1768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1764,63 +1802,63 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1882,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,7 +1922,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1930,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1946,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1964,7 +2002,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,7 +2042,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2012,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +2090,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +2098,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +2106,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,7 +2122,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,7 +2138,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2132,7 +2170,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +2178,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2148,7 +2186,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2156,7 +2194,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2180,7 +2218,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2226,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2234,7 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2250,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2258,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2274,7 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,7 +2282,7 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2252,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2298,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2330,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2308,7 +2346,7 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,7 +2354,7 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2370,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2378,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2410,7 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2380,7 +2418,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2412,7 +2450,7 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,7 +2474,7 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2538,7 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2562,7 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2570,7 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2578,7 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2586,7 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2626,7 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2658,7 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2666,7 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2682,7 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2698,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2746,7 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2762,7 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2770,7 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2778,7 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2786,7 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2794,7 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2802,7 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2826,7 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2858,7 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2866,7 @@
         <v>147</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2874,7 @@
         <v>148</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2882,7 @@
         <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2890,7 @@
         <v>150</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2906,7 @@
         <v>152</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2914,7 @@
         <v>153</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2922,7 @@
         <v>154</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2930,7 @@
         <v>155</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2938,7 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2946,7 @@
         <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2954,7 @@
         <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2978,7 @@
         <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2986,7 @@
         <v>162</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2994,7 @@
         <v>163</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +3010,7 @@
         <v>165</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +3018,7 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3042,7 @@
         <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3050,7 @@
         <v>170</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3058,7 @@
         <v>171</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3066,7 @@
         <v>172</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3082,7 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3098,7 @@
         <v>176</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3106,7 @@
         <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3122,7 @@
         <v>179</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3130,7 @@
         <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3146,7 @@
         <v>182</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3178,7 @@
         <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3210,7 @@
         <v>190</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3218,7 @@
         <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3234,7 @@
         <v>193</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3242,7 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3258,7 @@
         <v>196</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3274,7 @@
         <v>198</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3314,7 @@
         <v>204</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3330,7 @@
         <v>206</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3338,7 @@
         <v>207</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3362,7 @@
         <v>210</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3370,7 @@
         <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3402,7 @@
         <v>215</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3410,7 @@
         <v>216</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3426,7 @@
         <v>218</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3434,7 @@
         <v>219</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3442,7 @@
         <v>220</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3450,7 @@
         <v>221</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3474,7 @@
         <v>224</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3530,7 @@
         <v>231</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3546,7 @@
         <v>233</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3562,7 @@
         <v>235</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3570,7 @@
         <v>236</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3586,7 @@
         <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3594,7 @@
         <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3618,7 @@
         <v>242</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3626,7 @@
         <v>243</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3650,7 @@
         <v>246</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3658,7 @@
         <v>247</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3674,7 @@
         <v>249</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3682,7 @@
         <v>250</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3714,7 @@
         <v>254</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3722,7 @@
         <v>255</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3730,7 @@
         <v>256</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3738,7 @@
         <v>257</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3746,7 @@
         <v>258</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3754,7 @@
         <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3786,7 @@
         <v>263</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3818,7 @@
         <v>267</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3834,7 @@
         <v>269</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3874,7 @@
         <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3906,7 @@
         <v>278</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3914,7 @@
         <v>279</v>
       </c>
       <c r="B267" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3930,7 @@
         <v>281</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3938,7 @@
         <v>282</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3946,7 @@
         <v>283</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3954,7 @@
         <v>284</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3962,7 @@
         <v>285</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3970,7 @@
         <v>286</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3978,7 @@
         <v>287</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3986,7 @@
         <v>288</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +4010,7 @@
         <v>291</v>
       </c>
       <c r="B279" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4050,7 @@
         <v>296</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4058,7 @@
         <v>297</v>
       </c>
       <c r="B285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4074,7 @@
         <v>299</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4082,7 @@
         <v>300</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4090,7 @@
         <v>301</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4098,7 @@
         <v>302</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4106,7 @@
         <v>303</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4122,7 @@
         <v>305</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4138,7 @@
         <v>307</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4154,7 @@
         <v>309</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4170,7 @@
         <v>311</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4202,7 @@
         <v>315</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4218,7 @@
         <v>317</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4226,7 @@
         <v>318</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4234,7 @@
         <v>319</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4250,7 @@
         <v>321</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4258,7 @@
         <v>322</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4282,7 @@
         <v>325</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4290,7 @@
         <v>326</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4298,7 @@
         <v>327</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4354,7 @@
         <v>334</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4370,7 @@
         <v>336</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4378,7 @@
         <v>337</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4386,7 @@
         <v>338</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4394,7 @@
         <v>339</v>
       </c>
       <c r="B327" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4410,7 @@
         <v>341</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4418,7 @@
         <v>342</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4434,7 @@
         <v>344</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4466,7 @@
         <v>348</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4474,7 @@
         <v>349</v>
       </c>
       <c r="B337" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4490,7 @@
         <v>351</v>
       </c>
       <c r="B339" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4498,7 @@
         <v>352</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4506,7 @@
         <v>353</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4530,7 @@
         <v>356</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4554,7 @@
         <v>359</v>
       </c>
       <c r="B347" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4578,7 @@
         <v>362</v>
       </c>
       <c r="B350" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4586,7 @@
         <v>363</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4602,7 @@
         <v>365</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4618,7 @@
         <v>367</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4650,7 @@
         <v>371</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4666,7 @@
         <v>373</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4682,7 @@
         <v>375</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4690,7 @@
         <v>376</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4698,7 @@
         <v>377</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4706,7 @@
         <v>378</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4714,7 @@
         <v>379</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4722,7 @@
         <v>380</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4746,7 @@
         <v>383</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4754,7 @@
         <v>384</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4762,7 @@
         <v>385</v>
       </c>
       <c r="B373" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4778,7 @@
         <v>387</v>
       </c>
       <c r="B375" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4786,7 @@
         <v>388</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4810,7 @@
         <v>391</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4834,7 @@
         <v>394</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4850,7 @@
         <v>396</v>
       </c>
       <c r="B384" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4874,7 @@
         <v>399</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4890,7 @@
         <v>401</v>
       </c>
       <c r="B389" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4898,7 @@
         <v>402</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4914,7 @@
         <v>404</v>
       </c>
       <c r="B392" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4922,7 @@
         <v>405</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4930,7 @@
         <v>406</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4954,7 @@
         <v>409</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4962,7 @@
         <v>410</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4970,7 @@
         <v>411</v>
       </c>
       <c r="B399" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4986,7 @@
         <v>413</v>
       </c>
       <c r="B401" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4994,7 @@
         <v>414</v>
       </c>
       <c r="B402" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +5010,7 @@
         <v>416</v>
       </c>
       <c r="B404" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +5034,7 @@
         <v>419</v>
       </c>
       <c r="B407" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5042,7 @@
         <v>420</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5050,7 @@
         <v>421</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5058,7 @@
         <v>422</v>
       </c>
       <c r="B410" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5066,7 @@
         <v>423</v>
       </c>
       <c r="B411" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5074,7 @@
         <v>424</v>
       </c>
       <c r="B412" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5090,7 @@
         <v>426</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5098,7 @@
         <v>427</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5106,7 @@
         <v>428</v>
       </c>
       <c r="B416" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5162,7 @@
         <v>437</v>
       </c>
       <c r="B423" t="s">
-        <v>91</v>
+        <v>431</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5183,9 +5221,18 @@
         <v>448</v>
       </c>
     </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>449</v>
+      </c>
+      <c r="B431" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>